--- a/area.xlsx
+++ b/area.xlsx
@@ -46,8 +46,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -137,7 +138,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Area Chart</a:t>
+              <a:t>Energias Fase 1</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -161,12 +162,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Sheet'!$A$1:$A$7</f>
+              <f>'Sheet'!$A$2:$A$13</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Sheet'!$B$2:$B$7</f>
+              <f>'Sheet'!$B$2:$B$13</f>
             </numRef>
           </val>
         </ser>
@@ -185,12 +186,252 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Sheet'!$A$1:$A$7</f>
+              <f>'Sheet'!$A$2:$A$13</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Sheet'!$C$2:$C$7</f>
+              <f>'Sheet'!$C$2:$C$13</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="2"/>
+          <order val="2"/>
+          <tx>
+            <strRef>
+              <f>'Sheet'!D1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Sheet'!$A$2:$A$13</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Sheet'!$D$2:$D$13</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'Sheet'!E1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Sheet'!$A$2:$A$13</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Sheet'!$E$2:$E$13</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="4"/>
+          <order val="4"/>
+          <tx>
+            <strRef>
+              <f>'Sheet'!F1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Sheet'!$A$2:$A$13</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Sheet'!$F$2:$F$13</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="5"/>
+          <order val="5"/>
+          <tx>
+            <strRef>
+              <f>'Sheet'!G1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Sheet'!$A$2:$A$13</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Sheet'!$G$2:$G$13</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="6"/>
+          <order val="6"/>
+          <tx>
+            <strRef>
+              <f>'Sheet'!H1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Sheet'!$A$2:$A$13</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Sheet'!$H$2:$H$13</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="7"/>
+          <order val="7"/>
+          <tx>
+            <strRef>
+              <f>'Sheet'!I1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Sheet'!$A$2:$A$13</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Sheet'!$I$2:$I$13</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="8"/>
+          <order val="8"/>
+          <tx>
+            <strRef>
+              <f>'Sheet'!J1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Sheet'!$A$2:$A$13</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Sheet'!$J$2:$J$13</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="9"/>
+          <order val="9"/>
+          <tx>
+            <strRef>
+              <f>'Sheet'!K1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Sheet'!$A$2:$A$13</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Sheet'!$K$2:$K$13</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="10"/>
+          <order val="10"/>
+          <tx>
+            <strRef>
+              <f>'Sheet'!L1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Sheet'!$A$2:$A$13</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Sheet'!$L$2:$L$13</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="11"/>
+          <order val="11"/>
+          <tx>
+            <strRef>
+              <f>'Sheet'!M1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Sheet'!$A$2:$A$13</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Sheet'!$M$2:$M$13</f>
             </numRef>
           </val>
         </ser>
@@ -212,7 +453,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:t>Test</a:t>
+                  <a:t>Hora</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -239,7 +480,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:t>Percentage</a:t>
+                  <a:t>KWh</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -265,7 +506,7 @@
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>9</row>
+      <row>12</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -575,7 +816,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,243 +825,375 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B1" t="n">
-        <v>0.00458</v>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Hora</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Energia-Fase-1-REDCompañia</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Energia-Fase-1-CentralFotovoltaica</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Energia-Fase-1-ConsumoCliente</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Energia-Fase-2-REDCompañia</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Energia-Fase-2-CentralFotovoltaica</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Energia-Fase-2-ConsumoCliente</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Energia-Fase-3-REDCompañia</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Energia-Fase-3-CentralFotovoltaica</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Energia-Fase-3-ConsumoCliente</t>
+        </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
+      <c r="A2" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.00898</v>
+        <v>0.03821</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.03582</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.03654</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.03855</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.03507</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.03539</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.03714</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.03561</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.036</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
+      <c r="A3" s="1" t="n">
+        <v>0.04166666666666666</v>
       </c>
       <c r="B3" t="n">
-        <v>0.01341</v>
+        <v>0.0363</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.03372</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.03466</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.03706</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.03565</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.03654</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.03772</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.03494</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.03521</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
+      <c r="A4" s="1" t="n">
+        <v>0.08333333333333333</v>
       </c>
       <c r="B4" t="n">
-        <v>0.01863</v>
+        <v>0.03551</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.03408</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.03475</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.03558</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.03319</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.03414</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.03683</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.03369</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.03438</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
+      <c r="A5" s="1" t="n">
+        <v>0.125</v>
       </c>
       <c r="B5" t="n">
-        <v>0.02327</v>
+        <v>0.03341</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.03288</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.03538</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.03358</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.03357</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.03501</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.03396</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.0343</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
+      <c r="A6" s="1" t="n">
+        <v>0.1666666666666667</v>
       </c>
       <c r="B6" t="n">
-        <v>0.02806</v>
+        <v>0.02205</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.02004</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.02285</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.02315</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.02063</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.02166</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.02221</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.02137</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.02251</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
+      <c r="A7" s="1" t="n">
+        <v>0.2083333333333333</v>
       </c>
       <c r="B7" t="n">
-        <v>0.03251</v>
+        <v>0.01451</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.01249</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.01376</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.01557</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.01397</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.01353</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.01534</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.01353</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.01429</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
+      <c r="A8" s="1" t="n">
+        <v>0.25</v>
       </c>
       <c r="B8" t="n">
-        <v>0.03711</v>
+        <v>0.00577</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.00691</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.01032</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.00514</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.00638</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.00509</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.00596</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.00641</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.0049</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
+      <c r="A9" s="1" t="n">
+        <v>0.2916666666666667</v>
       </c>
       <c r="B9" t="n">
-        <v>0.04156</v>
+        <v>0.12941</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.12837</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.12801</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.13343</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.13277</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.12789</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.12974</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.12715</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.12789</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
+      <c r="A10" s="1" t="n">
+        <v>0.3333333333333333</v>
       </c>
       <c r="B10" t="n">
-        <v>0.04597</v>
+        <v>0.09326</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.09029</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.08416999999999999</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.08634</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.08415</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.08787</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.08695</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.08998</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.08334999999999999</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
+      <c r="A11" s="1" t="n">
+        <v>0.375</v>
       </c>
       <c r="B11" t="n">
-        <v>0.05038</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.05472</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.05896</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.06363000000000001</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.06811</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0.07171</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" t="n">
-        <v>0.0759</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" t="n">
-        <v>0.07987</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>18</v>
-      </c>
-      <c r="B19" t="n">
-        <v>0.08416</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>19</v>
-      </c>
-      <c r="B20" t="n">
-        <v>0.08839</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>20</v>
-      </c>
-      <c r="B21" t="n">
-        <v>0.09277000000000001</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>21</v>
-      </c>
-      <c r="B22" t="n">
-        <v>0.09465999999999999</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>22</v>
-      </c>
-      <c r="B23" t="n">
-        <v>0.09637999999999999</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>23</v>
-      </c>
-      <c r="B24" t="n">
-        <v>0.09816</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>24</v>
-      </c>
-      <c r="B25" t="n">
-        <v>0.09991</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>25</v>
-      </c>
-      <c r="B26" t="n">
-        <v>0.10159</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>26</v>
-      </c>
-      <c r="B27" t="n">
-        <v>0.10339</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>27</v>
-      </c>
-      <c r="B28" t="n">
-        <v>0.10741</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>28</v>
-      </c>
-      <c r="B29" t="n">
-        <v>0.11111</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>29</v>
-      </c>
-      <c r="B30" t="n">
-        <v>0.11489</v>
+        <v>0.10805</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.10228</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.10558</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.11279</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.10806</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.1082</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.10993</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.10957</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.10992</v>
       </c>
     </row>
   </sheetData>
